--- a/doc/user-guide/cookbook/resource/resource-tool.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-tool.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="792" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="itemoperation" sheetId="20" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14439" uniqueCount="6530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14455" uniqueCount="6530">
   <si>
     <t>name</t>
   </si>
@@ -19966,8 +19966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20159,23 +20159,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20183,19 +20184,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6513</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6514</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6464</v>
       </c>
@@ -20203,20 +20207,23 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
+        <v>6518</v>
+      </c>
+      <c r="D2" t="s">
         <v>6460</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>2*8*3600</f>
         <v>57600</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6465</v>
       </c>
@@ -20224,20 +20231,23 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D3" t="s">
         <v>6460</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">2*8*3600</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">2*8*3600</f>
         <v>57600</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6466</v>
       </c>
@@ -20245,20 +20255,23 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>6520</v>
+      </c>
+      <c r="D4" t="s">
         <v>6460</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6467</v>
       </c>
@@ -20266,20 +20279,23 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>6521</v>
+      </c>
+      <c r="D5" t="s">
         <v>6460</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6468</v>
       </c>
@@ -20287,20 +20303,23 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
+        <v>6469</v>
+      </c>
+      <c r="D6" t="s">
         <v>6460</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6475</v>
       </c>
@@ -20308,20 +20327,23 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>6522</v>
+      </c>
+      <c r="D7" t="s">
         <v>6460</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6471</v>
       </c>
@@ -20329,20 +20351,23 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>6523</v>
+      </c>
+      <c r="D8" t="s">
         <v>6460</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6472</v>
       </c>
@@ -20350,20 +20375,23 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
+        <v>6524</v>
+      </c>
+      <c r="D9" t="s">
         <v>6460</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6473</v>
       </c>
@@ -20371,20 +20399,23 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
+        <v>6525</v>
+      </c>
+      <c r="D10" t="s">
         <v>6460</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6474</v>
       </c>
@@ -20392,20 +20423,23 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D11" t="s">
         <v>6460</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6481</v>
       </c>
@@ -20413,20 +20447,23 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
+        <v>6526</v>
+      </c>
+      <c r="D12" t="s">
         <v>6460</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6476</v>
       </c>
@@ -20434,20 +20471,23 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
+        <v>6527</v>
+      </c>
+      <c r="D13" t="s">
         <v>6460</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6478</v>
       </c>
@@ -20455,20 +20495,23 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
+        <v>6528</v>
+      </c>
+      <c r="D14" t="s">
         <v>6460</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6479</v>
       </c>
@@ -20476,20 +20519,23 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
+        <v>6529</v>
+      </c>
+      <c r="D15" t="s">
         <v>6460</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6480</v>
       </c>
@@ -20497,79 +20543,82 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
+        <v>6477</v>
+      </c>
+      <c r="D16" t="s">
         <v>6460</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6483</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>6460</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6484</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>6460</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6485</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>6460</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>57600</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
     </row>

--- a/doc/user-guide/cookbook/resource/resource-tool.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-tool.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF0C7E-D76B-4262-B8E4-74DA3B90FEF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="792" activeTab="9"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,19 @@
     <sheet name="operation" sheetId="11" r:id="rId9"/>
     <sheet name="parameter" sheetId="19" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -363,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,6 +498,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +550,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,305 +742,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
@@ -1008,21 +998,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1055,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1072,20 +1062,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1179,19 +1169,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1213,24 +1203,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1241,20 +1231,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1341,7 +1331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1370,7 +1360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1399,7 +1389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1428,7 +1418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1457,7 +1447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1486,7 +1476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1515,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1544,7 +1534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1573,7 +1563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1602,7 +1592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1660,7 +1650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1689,7 +1679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1718,7 +1708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1747,7 +1737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1776,7 +1766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1805,7 +1795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1863,7 +1853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1892,7 +1882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1921,7 +1911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1979,7 +1969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -2008,7 +1998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2037,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2072,22 +2062,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2118,7 +2108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2132,7 +2122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2160,7 +2150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2174,7 +2164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2188,7 +2178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2202,7 +2192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2216,7 +2206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2230,7 +2220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2244,7 +2234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2272,7 +2262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2286,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2300,7 +2290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2314,7 +2304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2328,7 +2318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2342,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2356,7 +2346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2398,7 +2388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2426,7 +2416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2440,7 +2430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2454,7 +2444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2468,7 +2458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2482,7 +2472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2496,7 +2486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2510,7 +2500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2524,7 +2514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2552,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2566,7 +2556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2594,7 +2584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2614,100 +2604,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2718,20 +2708,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2753,25 +2743,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2794,7 +2784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2818,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2842,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2866,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2890,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2914,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2938,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2962,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2986,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -3010,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -3034,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3058,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3082,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3106,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3130,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3154,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3175,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3196,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
